--- a/src/test/resources/excel_files/City_Data.xlsx
+++ b/src/test/resources/excel_files/City_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3C45F8-6445-4664-9031-0B7FDD4ED31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E074399F-EE06-4265-AB3A-3A4788125537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Same_City" sheetId="2" r:id="rId2"/>
-    <sheet name="Invalid_City" sheetId="3" r:id="rId3"/>
+    <sheet name="Add_Stops" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>From_Location</t>
   </si>
@@ -41,112 +41,67 @@
     <t>To_Location</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Vadodara</t>
-  </si>
-  <si>
-    <t>Surat</t>
-  </si>
-  <si>
-    <t>Zira</t>
-  </si>
-  <si>
-    <t>Gorakhpur</t>
-  </si>
-  <si>
-    <t>Ahmednagar</t>
-  </si>
-  <si>
-    <t>Gurugram</t>
-  </si>
-  <si>
-    <t>Hubli</t>
-  </si>
-  <si>
-    <t>Guwahati</t>
-  </si>
-  <si>
-    <t>Shirdi</t>
-  </si>
-  <si>
-    <t>Ayodhya</t>
-  </si>
-  <si>
-    <t>Madurai</t>
-  </si>
-  <si>
     <t>Gorakhpur, Uttar Pradesh, India</t>
   </si>
   <si>
+    <t>Mumbai, Maharashtra, India</t>
+  </si>
+  <si>
     <t>Gurugram, Haryana, India</t>
   </si>
   <si>
+    <t>Madurai, Tamil Nadu, India</t>
+  </si>
+  <si>
     <t>Guwahati, Assam, India</t>
   </si>
   <si>
+    <t>Mangalore International Airport</t>
+  </si>
+  <si>
     <t>Ayodhya, Uttar Pradesh, India</t>
   </si>
   <si>
+    <t>Surat, Gujarat, India</t>
+  </si>
+  <si>
     <t>Agra, Uttar Pradesh, India</t>
   </si>
   <si>
+    <t>Shimla, Himachal Pradesh, India</t>
+  </si>
+  <si>
     <t>Zirakpur, Punjab, India</t>
   </si>
   <si>
+    <t>Shirdi Airport</t>
+  </si>
+  <si>
     <t>Zira, Punjab, India</t>
   </si>
   <si>
-    <t>Mumbai, Maharashtra, India</t>
-  </si>
-  <si>
-    <t>Madurai, Tamil Nadu, India</t>
-  </si>
-  <si>
-    <t>Mangalore International Airport</t>
-  </si>
-  <si>
-    <t>Surat, Gujarat, India</t>
-  </si>
-  <si>
-    <t>Shimla, Himachal Pradesh, India</t>
-  </si>
-  <si>
-    <t>Shirdi Airport</t>
-  </si>
-  <si>
     <t>Aurangabad Airport</t>
   </si>
   <si>
     <t>Hubli Airport</t>
   </si>
   <si>
-    <t>Rajiv Gandhi International Airport, Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid </t>
-  </si>
-  <si>
-    <t>Unknownland</t>
-  </si>
-  <si>
-    <t>@@!!##</t>
-  </si>
-  <si>
-    <t>Zzzzzz City</t>
-  </si>
-  <si>
-    <t>asdfghjkl</t>
-  </si>
-  <si>
-    <t>qwertyuiop</t>
-  </si>
-  <si>
-    <t>zxcvbnm</t>
-  </si>
-  <si>
-    <t>abc123456789</t>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Goa</t>
   </si>
 </sst>
 </file>
@@ -197,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,54 +179,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -292,37 +199,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -737,7 +624,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,10 +634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -758,7 +645,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -771,68 +658,56 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>2</v>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -846,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B9DD2E-74E8-4A61-B3E5-2A82864A8E36}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -857,140 +732,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>23</v>
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>25</v>
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>26</v>
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>27</v>
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1001,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6216C99-185B-4D2E-AE94-21854B8E67FC}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,44 +882,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>30</v>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
-        <v>31</v>
+      <c r="A2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
-        <v>32</v>
+      <c r="A3" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
-        <v>33</v>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
+      <c r="A5" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
+      <c r="A6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/excel_files/City_Data.xlsx
+++ b/src/test/resources/excel_files/City_Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29128"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E074399F-EE06-4265-AB3A-3A4788125537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CA447C-9F75-40FD-A9B2-46D329C8F04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valid_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Same_City" sheetId="2" r:id="rId2"/>
+    <sheet name="Diff_City" sheetId="5" r:id="rId1"/>
+    <sheet name="Same_City" sheetId="4" r:id="rId2"/>
     <sheet name="Add_Stops" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>From_Location</t>
   </si>
@@ -63,27 +63,6 @@
   </si>
   <si>
     <t>Surat, Gujarat, India</t>
-  </si>
-  <si>
-    <t>Agra, Uttar Pradesh, India</t>
-  </si>
-  <si>
-    <t>Shimla, Himachal Pradesh, India</t>
-  </si>
-  <si>
-    <t>Zirakpur, Punjab, India</t>
-  </si>
-  <si>
-    <t>Shirdi Airport</t>
-  </si>
-  <si>
-    <t>Zira, Punjab, India</t>
-  </si>
-  <si>
-    <t>Aurangabad Airport</t>
-  </si>
-  <si>
-    <t>Hubli Airport</t>
   </si>
   <si>
     <t>City</t>
@@ -152,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,112 +154,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -291,17 +192,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9494E2A3-89B3-494E-8614-2F37E1F0FF7A}" name="Table1" displayName="Table1" ref="A1:B11" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:B11" xr:uid="{9494E2A3-89B3-494E-8614-2F37E1F0FF7A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD22A67E-C847-4A81-864A-982391FE706D}" name="From_Location" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{47454BE8-28B9-4BAD-A350-BFF71DE1F481}" name="To_Location"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,24 +510,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C29863-4FC8-41D9-9492-207FAE29B920}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22BDC1D-6817-431A-99C3-DEB19F31BE13}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -645,223 +594,25 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B9DD2E-74E8-4A61-B3E5-2A82864A8E36}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -882,40 +633,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
+      <c r="A1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
